--- a/www.eia.gov/electricity/monthly/xls/table_4_12_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_12_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="75">
   <si>
-    <t>Table 4.12.A. Average Cost of Petroleum Coke Delivered for Electricity Generation by State, October 2016 and 2015</t>
+    <t>Table 4.12.A. Average Cost of Petroleum Coke Delivered for Electricity Generation by State, November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1591,10 +1591,10 @@
         <v>23</v>
       </c>
       <c r="E16" s="10">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="F16" s="10">
-        <v>1.47</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>23</v>
@@ -1660,16 +1660,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="13">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="C19" s="13">
         <v>1.66</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="E19" s="13">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F19" s="13">
         <v>1.66</v>
@@ -1712,19 +1712,19 @@
         <v>28</v>
       </c>
       <c r="B21" s="13">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="C21" s="13">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="D21" s="14">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="F21" s="13">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>11</v>
@@ -1946,19 +1946,19 @@
         <v>37</v>
       </c>
       <c r="B30" s="10">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="C30" s="10">
-        <v>2.0099999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="D30" s="11">
-        <v>-0.17</v>
+        <v>0.42</v>
       </c>
       <c r="E30" s="10">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="F30" s="10">
-        <v>2.0099999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>11</v>
@@ -2024,19 +2024,19 @@
         <v>40</v>
       </c>
       <c r="B33" s="13">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="C33" s="13">
-        <v>2.0099999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="D33" s="14">
-        <v>-0.17</v>
+        <v>0.42</v>
       </c>
       <c r="E33" s="13">
-        <v>1.66</v>
+        <v>2.35</v>
       </c>
       <c r="F33" s="13">
-        <v>2.0099999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>11</v>
@@ -2206,19 +2206,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="10">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="C40" s="10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="D40" s="11">
-        <v>-7.5999999999999998E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E40" s="10">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F40" s="10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>11</v>
@@ -2258,19 +2258,19 @@
         <v>49</v>
       </c>
       <c r="B42" s="13">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="C42" s="13">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="D42" s="14">
-        <v>-7.5999999999999998E-2</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E42" s="13">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F42" s="13">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>11</v>
@@ -2336,19 +2336,19 @@
         <v>52</v>
       </c>
       <c r="B45" s="10">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="C45" s="10">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="D45" s="11">
-        <v>0.22</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E45" s="10">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="F45" s="10">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>11</v>
@@ -2388,19 +2388,19 @@
         <v>54</v>
       </c>
       <c r="B47" s="13">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="C47" s="13">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="D47" s="14">
-        <v>0.22</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E47" s="13">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="F47" s="13">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>11</v>
@@ -2891,10 +2891,10 @@
         <v>23</v>
       </c>
       <c r="E66" s="10">
-        <v>1.87</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F66" s="10">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>23</v>
